--- a/data/trans_orig/P15-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P15-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B579809-14FC-4F07-A99E-60C7CF9812C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D826259-8286-4978-8FFF-DA6A4ABDAF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{05C41EC8-1186-42D3-BFA3-C4224DF2E413}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CE3391E5-44D7-451E-9191-A55643F378E2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="393">
   <si>
     <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>7,41%</t>
   </si>
   <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
   </si>
   <si>
     <t>6,18%</t>
   </si>
   <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
   </si>
   <si>
     <t>6,81%</t>
   </si>
   <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>92,59%</t>
   </si>
   <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
   </si>
   <si>
     <t>93,82%</t>
   </si>
   <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
   </si>
   <si>
     <t>93,19%</t>
   </si>
   <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,7 +140,7 @@
     <t>8,5%</t>
   </si>
   <si>
-    <t>6,41%</t>
+    <t>6,47%</t>
   </si>
   <si>
     <t>10,95%</t>
@@ -149,1129 +149,1075 @@
     <t>4,94%</t>
   </si>
   <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
   </si>
   <si>
     <t>6,73%</t>
   </si>
   <si>
-    <t>5,41%</t>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2023 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
   </si>
   <si>
     <t>8,27%</t>
   </si>
   <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
   </si>
   <si>
     <t>91,73%</t>
   </si>
   <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
   </si>
   <si>
     <t>5,51%</t>
   </si>
   <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
   </si>
   <si>
     <t>94,49%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2023 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
   </si>
 </sst>
 </file>
@@ -1683,7 +1629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A00051-6472-44A5-9481-F07F4200CDB9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03624E11-CE10-4DB1-A6D9-8814D4C91B34}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2123,7 +2069,7 @@
         <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="H10" s="7">
         <v>54</v>
@@ -2132,13 +2078,13 @@
         <v>58705</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>132</v>
@@ -2150,10 +2096,10 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2168,13 +2114,13 @@
         <v>877556</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>854</v>
@@ -2183,13 +2129,13 @@
         <v>909688</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>1672</v>
@@ -2201,10 +2147,10 @@
         <v>21</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2260,7 +2206,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2272,13 +2218,13 @@
         <v>45725</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>35</v>
@@ -2287,13 +2233,13 @@
         <v>34931</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>79</v>
@@ -2302,13 +2248,13 @@
         <v>80656</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2323,13 +2269,13 @@
         <v>632784</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>661</v>
@@ -2338,13 +2284,13 @@
         <v>648910</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>1258</v>
@@ -2353,13 +2299,13 @@
         <v>1281694</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2415,7 +2361,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2427,13 +2373,13 @@
         <v>55333</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>44</v>
@@ -2442,13 +2388,13 @@
         <v>46347</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>101</v>
@@ -2457,13 +2403,13 @@
         <v>101680</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2478,13 +2424,13 @@
         <v>886889</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H17" s="7">
         <v>953</v>
@@ -2493,13 +2439,13 @@
         <v>992265</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>1890</v>
@@ -2508,10 +2454,10 @@
         <v>1879154</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>102</v>
@@ -2660,7 +2606,7 @@
         <v>6105</v>
       </c>
       <c r="N20" s="7">
-        <v>6237293</v>
+        <v>6237294</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>118</v>
@@ -2711,7 +2657,7 @@
         <v>6511</v>
       </c>
       <c r="N21" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2746,7 +2692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13366AB0-D9F5-469C-B031-917CD3B7DCCA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92949CD6-60EE-46F3-B494-06FA48C20D35}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3055,13 +3001,13 @@
         <v>90740</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3076,13 +3022,13 @@
         <v>544581</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H8" s="7">
         <v>506</v>
@@ -3091,13 +3037,13 @@
         <v>537528</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M8" s="7">
         <v>1015</v>
@@ -3106,13 +3052,13 @@
         <v>1082109</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3180,13 +3126,13 @@
         <v>81289</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H10" s="7">
         <v>70</v>
@@ -3195,13 +3141,13 @@
         <v>74623</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M10" s="7">
         <v>143</v>
@@ -3210,10 +3156,10 @@
         <v>155913</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>165</v>
@@ -3252,7 +3198,7 @@
         <v>170</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>95</v>
+        <v>171</v>
       </c>
       <c r="M11" s="7">
         <v>1733</v>
@@ -3261,13 +3207,13 @@
         <v>1894218</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>43</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3323,7 +3269,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3335,13 +3281,13 @@
         <v>58408</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H13" s="7">
         <v>53</v>
@@ -3353,10 +3299,10 @@
         <v>141</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M13" s="7">
         <v>110</v>
@@ -3365,13 +3311,13 @@
         <v>115453</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>180</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3386,13 +3332,13 @@
         <v>699215</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H14" s="7">
         <v>652</v>
@@ -3401,13 +3347,13 @@
         <v>720129</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M14" s="7">
         <v>1284</v>
@@ -3416,10 +3362,10 @@
         <v>1419344</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>187</v>
+        <v>63</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>188</v>
@@ -3478,7 +3424,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3505,10 +3451,10 @@
         <v>72284</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>193</v>
@@ -3523,10 +3469,10 @@
         <v>194</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>195</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,13 +3487,13 @@
         <v>858546</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H17" s="7">
         <v>935</v>
@@ -3556,13 +3502,13 @@
         <v>979617</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>49</v>
+        <v>199</v>
       </c>
       <c r="M17" s="7">
         <v>1759</v>
@@ -3571,13 +3517,13 @@
         <v>1838162</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>203</v>
+        <v>155</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>204</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3645,13 +3591,13 @@
         <v>287913</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>11</v>
+        <v>202</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H19" s="7">
         <v>241</v>
@@ -3660,13 +3606,13 @@
         <v>257472</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M19" s="7">
         <v>517</v>
@@ -3675,13 +3621,13 @@
         <v>545385</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3696,13 +3642,13 @@
         <v>3138866</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H20" s="7">
         <v>3057</v>
@@ -3711,13 +3657,13 @@
         <v>3300837</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M20" s="7">
         <v>5990</v>
@@ -3726,7 +3672,7 @@
         <v>6439703</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>63</v>
+        <v>216</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>217</v>
@@ -3809,7 +3755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3BE7BBA-02AB-45C6-9EA9-ECD625730EBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77AA7B43-6A00-4825-B4E9-8B3CA8892195}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3963,7 +3909,7 @@
         <v>11790</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>226</v>
@@ -4014,7 +3960,7 @@
         <v>218116</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>234</v>
@@ -4088,13 +4034,13 @@
         <v>36086</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H7" s="7">
         <v>41</v>
@@ -4103,13 +4049,13 @@
         <v>42407</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M7" s="7">
         <v>78</v>
@@ -4118,13 +4064,13 @@
         <v>78493</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,13 +4085,13 @@
         <v>522168</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H8" s="7">
         <v>510</v>
@@ -4154,13 +4100,13 @@
         <v>517072</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M8" s="7">
         <v>1012</v>
@@ -4169,13 +4115,13 @@
         <v>1039240</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4243,13 +4189,13 @@
         <v>60475</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>256</v>
+        <v>55</v>
       </c>
       <c r="H10" s="7">
         <v>44</v>
@@ -4258,13 +4204,13 @@
         <v>48599</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>36</v>
+        <v>255</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M10" s="7">
         <v>101</v>
@@ -4276,10 +4222,10 @@
         <v>126</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>33</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,13 +4240,13 @@
         <v>961956</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>261</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H11" s="7">
         <v>933</v>
@@ -4309,13 +4255,13 @@
         <v>994314</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>46</v>
+        <v>262</v>
       </c>
       <c r="M11" s="7">
         <v>1827</v>
@@ -4327,10 +4273,10 @@
         <v>135</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>43</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4386,7 +4332,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4398,13 +4344,13 @@
         <v>36666</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>268</v>
+        <v>66</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -4413,13 +4359,13 @@
         <v>31561</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M13" s="7">
         <v>62</v>
@@ -4428,13 +4374,13 @@
         <v>68227</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>36</v>
+        <v>270</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4449,13 +4395,13 @@
         <v>722886</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>275</v>
+        <v>75</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H14" s="7">
         <v>708</v>
@@ -4464,13 +4410,13 @@
         <v>753450</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M14" s="7">
         <v>1370</v>
@@ -4479,13 +4425,13 @@
         <v>1476336</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>46</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4541,7 +4487,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4553,13 +4499,13 @@
         <v>60886</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H16" s="7">
         <v>54</v>
@@ -4568,13 +4514,13 @@
         <v>62618</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M16" s="7">
         <v>113</v>
@@ -4583,13 +4529,13 @@
         <v>123504</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4604,13 +4550,13 @@
         <v>876681</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="H17" s="7">
         <v>905</v>
@@ -4619,13 +4565,13 @@
         <v>981161</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M17" s="7">
         <v>1778</v>
@@ -4634,13 +4580,13 @@
         <v>1857842</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4711,10 +4657,10 @@
         <v>296</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="H19" s="7">
         <v>172</v>
@@ -4723,13 +4669,13 @@
         <v>191453</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M19" s="7">
         <v>365</v>
@@ -4738,13 +4684,13 @@
         <v>391087</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>243</v>
+        <v>300</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4759,13 +4705,13 @@
         <v>3194716</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>305</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>306</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>3166</v>
@@ -4774,13 +4720,13 @@
         <v>3353089</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="M20" s="7">
         <v>6204</v>
@@ -4789,13 +4735,13 @@
         <v>6547805</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>253</v>
+        <v>307</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4872,7 +4818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3E686A-5D8E-4139-9046-829545617B5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC66200-75AC-4EAA-9CD8-7C72B0261F21}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4889,7 +4835,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4996,13 +4942,13 @@
         <v>6016</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="H4" s="7">
         <v>17</v>
@@ -5011,13 +4957,13 @@
         <v>7580</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="M4" s="7">
         <v>26</v>
@@ -5026,13 +4972,13 @@
         <v>13596</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5047,13 +4993,13 @@
         <v>95966</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="H5" s="7">
         <v>226</v>
@@ -5062,13 +5008,13 @@
         <v>123153</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="M5" s="7">
         <v>335</v>
@@ -5077,13 +5023,13 @@
         <v>219119</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5151,13 +5097,13 @@
         <v>40602</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>76</v>
+        <v>329</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H7" s="7">
         <v>75</v>
@@ -5166,13 +5112,13 @@
         <v>38452</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="M7" s="7">
         <v>121</v>
@@ -5181,13 +5127,13 @@
         <v>79055</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>336</v>
+        <v>239</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,13 +5148,13 @@
         <v>509221</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>84</v>
+        <v>335</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>182</v>
+        <v>336</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H8" s="7">
         <v>921</v>
@@ -5217,13 +5163,13 @@
         <v>554510</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>339</v>
+        <v>114</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>341</v>
+        <v>78</v>
       </c>
       <c r="M8" s="7">
         <v>1487</v>
@@ -5232,13 +5178,13 @@
         <v>1063730</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>344</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5306,13 +5252,13 @@
         <v>67712</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H10" s="7">
         <v>88</v>
@@ -5321,13 +5267,13 @@
         <v>62980</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>349</v>
+        <v>254</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="M10" s="7">
         <v>153</v>
@@ -5336,13 +5282,13 @@
         <v>130692</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>287</v>
+        <v>181</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5357,13 +5303,13 @@
         <v>971536</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H11" s="7">
         <v>1428</v>
@@ -5372,13 +5318,13 @@
         <v>996494</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>358</v>
+        <v>260</v>
       </c>
       <c r="M11" s="7">
         <v>2327</v>
@@ -5387,13 +5333,13 @@
         <v>1968030</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>294</v>
+        <v>188</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5449,7 +5395,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5461,13 +5407,13 @@
         <v>29820</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>362</v>
+        <v>267</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="H13" s="7">
         <v>69</v>
@@ -5476,13 +5422,13 @@
         <v>48076</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>366</v>
+        <v>287</v>
       </c>
       <c r="M13" s="7">
         <v>99</v>
@@ -5491,13 +5437,13 @@
         <v>77896</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>369</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5512,13 +5458,13 @@
         <v>698952</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>372</v>
+        <v>276</v>
       </c>
       <c r="H14" s="7">
         <v>978</v>
@@ -5527,13 +5473,13 @@
         <v>826295</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>374</v>
+        <v>294</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="M14" s="7">
         <v>1624</v>
@@ -5542,13 +5488,13 @@
         <v>1525246</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>377</v>
+        <v>24</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5604,7 +5550,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5616,13 +5562,13 @@
         <v>60812</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="H16" s="7">
         <v>110</v>
@@ -5631,13 +5577,13 @@
         <v>75188</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>126</v>
+        <v>371</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="M16" s="7">
         <v>172</v>
@@ -5646,13 +5592,13 @@
         <v>136000</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>385</v>
+        <v>39</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>386</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5667,13 +5613,13 @@
         <v>904591</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="H17" s="7">
         <v>1452</v>
@@ -5682,13 +5628,13 @@
         <v>1075244</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>135</v>
+        <v>379</v>
       </c>
       <c r="M17" s="7">
         <v>2396</v>
@@ -5697,13 +5643,13 @@
         <v>1979835</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>393</v>
+        <v>335</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>394</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5771,13 +5717,13 @@
         <v>204962</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="H19" s="7">
         <v>359</v>
@@ -5786,13 +5732,13 @@
         <v>232277</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>399</v>
+        <v>192</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>400</v>
+        <v>333</v>
       </c>
       <c r="M19" s="7">
         <v>571</v>
@@ -5801,13 +5747,13 @@
         <v>437239</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>145</v>
+        <v>385</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>402</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5822,13 +5768,13 @@
         <v>3180266</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="H20" s="7">
         <v>5005</v>
@@ -5837,28 +5783,28 @@
         <v>3575695</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>407</v>
+        <v>339</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>408</v>
+        <v>199</v>
       </c>
       <c r="M20" s="7">
         <v>8169</v>
       </c>
       <c r="N20" s="7">
-        <v>6755961</v>
+        <v>6755960</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>155</v>
+        <v>391</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>409</v>
+        <v>27</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5900,7 +5846,7 @@
         <v>8740</v>
       </c>
       <c r="N21" s="7">
-        <v>7193200</v>
+        <v>7193199</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P15-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P15-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D826259-8286-4978-8FFF-DA6A4ABDAF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{749C097E-2DD9-4483-A253-C6E70F13A9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CE3391E5-44D7-451E-9191-A55643F378E2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C88CC49B-CDB9-4655-9525-337A8A44704F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="385">
   <si>
     <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -77,28 +77,28 @@
     <t>7,41%</t>
   </si>
   <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
     <t>3,02%</t>
   </si>
   <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
+    <t>11,76%</t>
   </si>
   <si>
     <t>6,81%</t>
   </si>
   <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,1117 +107,1093 @@
     <t>92,59%</t>
   </si>
   <si>
-    <t>85,99%</t>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
   </si>
   <si>
     <t>96,98%</t>
   </si>
   <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
     <t>93,19%</t>
   </si>
   <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>8,5%</t>
   </si>
   <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
     <t>6,47%</t>
   </si>
   <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
   </si>
   <si>
     <t>5,39%</t>
   </si>
   <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
   </si>
   <si>
     <t>94,61%</t>
   </si>
   <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
   </si>
   <si>
     <t>4,67%</t>
   </si>
   <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
   </si>
   <si>
     <t>95,33%</t>
   </si>
   <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2023 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
   </si>
   <si>
     <t>6,48%</t>
   </si>
   <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
   </si>
   <si>
     <t>93,52%</t>
   </si>
   <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
   </si>
   <si>
     <t>5,35%</t>
   </si>
   <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
   </si>
   <si>
     <t>94,65%</t>
   </si>
   <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2023 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
     <t>93,92%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
   </si>
 </sst>
 </file>
@@ -1629,7 +1605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03624E11-CE10-4DB1-A6D9-8814D4C91B34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{710044CF-496F-4BBD-B240-720ABDFE22D4}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2069,7 +2045,7 @@
         <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>54</v>
@@ -2078,13 +2054,13 @@
         <v>58705</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>132</v>
@@ -2096,7 +2072,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>57</v>
@@ -2117,10 +2093,10 @@
         <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>854</v>
@@ -2129,13 +2105,13 @@
         <v>909688</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>1672</v>
@@ -2147,10 +2123,10 @@
         <v>21</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2251,10 +2227,10 @@
         <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2269,13 +2245,13 @@
         <v>632784</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>661</v>
@@ -2284,13 +2260,13 @@
         <v>648910</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>1258</v>
@@ -2299,13 +2275,13 @@
         <v>1281694</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2361,7 +2337,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2373,13 +2349,13 @@
         <v>55333</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>44</v>
@@ -2388,13 +2364,13 @@
         <v>46347</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>101</v>
@@ -2403,13 +2379,13 @@
         <v>101680</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2424,13 +2400,13 @@
         <v>886889</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>953</v>
@@ -2439,13 +2415,13 @@
         <v>992265</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>1890</v>
@@ -2454,13 +2430,13 @@
         <v>1879154</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2528,13 +2504,13 @@
         <v>243056</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H19" s="7">
         <v>169</v>
@@ -2543,13 +2519,13 @@
         <v>175391</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>406</v>
@@ -2558,13 +2534,13 @@
         <v>418447</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2576,16 +2552,16 @@
         <v>2977</v>
       </c>
       <c r="D20" s="7">
-        <v>3033488</v>
+        <v>3033487</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H20" s="7">
         <v>3128</v>
@@ -2594,13 +2570,13 @@
         <v>3203807</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>6105</v>
@@ -2609,13 +2585,13 @@
         <v>6237294</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2627,7 +2603,7 @@
         <v>3214</v>
       </c>
       <c r="D21" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2671,7 +2647,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2692,7 +2668,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92949CD6-60EE-46F3-B494-06FA48C20D35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA81E02-15EB-4E5C-9CEC-0B3B2435FCF7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2709,7 +2685,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2816,13 +2792,13 @@
         <v>15899</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -2831,13 +2807,13 @@
         <v>5903</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M4" s="7">
         <v>22</v>
@@ -2846,13 +2822,13 @@
         <v>21802</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2867,13 +2843,13 @@
         <v>99866</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H5" s="7">
         <v>94</v>
@@ -2882,13 +2858,13 @@
         <v>106002</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M5" s="7">
         <v>199</v>
@@ -2897,13 +2873,13 @@
         <v>205868</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2971,13 +2947,13 @@
         <v>43123</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H7" s="7">
         <v>45</v>
@@ -2986,13 +2962,13 @@
         <v>47617</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M7" s="7">
         <v>88</v>
@@ -3001,13 +2977,13 @@
         <v>90740</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3022,13 +2998,13 @@
         <v>544581</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H8" s="7">
         <v>506</v>
@@ -3037,13 +3013,13 @@
         <v>537528</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M8" s="7">
         <v>1015</v>
@@ -3052,7 +3028,7 @@
         <v>1082109</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>155</v>
@@ -3296,7 +3272,7 @@
         <v>57045</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>178</v>
@@ -3317,7 +3293,7 @@
         <v>181</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>57</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3332,13 +3308,13 @@
         <v>699215</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H14" s="7">
         <v>652</v>
@@ -3347,13 +3323,13 @@
         <v>720129</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M14" s="7">
         <v>1284</v>
@@ -3362,13 +3338,13 @@
         <v>1419344</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>63</v>
+        <v>189</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3424,7 +3400,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3436,13 +3412,13 @@
         <v>89193</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H16" s="7">
         <v>68</v>
@@ -3451,13 +3427,13 @@
         <v>72284</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M16" s="7">
         <v>154</v>
@@ -3466,13 +3442,13 @@
         <v>161478</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>198</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>148</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,13 +3463,13 @@
         <v>858546</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="H17" s="7">
         <v>935</v>
@@ -3502,13 +3478,13 @@
         <v>979617</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>59</v>
+        <v>203</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="M17" s="7">
         <v>1759</v>
@@ -3517,13 +3493,13 @@
         <v>1838162</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>155</v>
+        <v>207</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>119</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3591,13 +3567,13 @@
         <v>287913</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="H19" s="7">
         <v>241</v>
@@ -3606,13 +3582,13 @@
         <v>257472</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>205</v>
+        <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="M19" s="7">
         <v>517</v>
@@ -3621,13 +3597,13 @@
         <v>545385</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3642,13 +3618,13 @@
         <v>3138866</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="H20" s="7">
         <v>3057</v>
@@ -3657,13 +3633,13 @@
         <v>3300837</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>215</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>5990</v>
@@ -3672,13 +3648,13 @@
         <v>6439703</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,7 +3710,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3755,7 +3731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77AA7B43-6A00-4825-B4E9-8B3CA8892195}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8E0483-3523-48FF-8127-F88761DB5ABC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3772,7 +3748,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3879,13 +3855,13 @@
         <v>5521</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>220</v>
+        <v>67</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -3894,13 +3870,13 @@
         <v>6269</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -3909,13 +3885,13 @@
         <v>11790</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,13 +3906,13 @@
         <v>111025</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>228</v>
+        <v>76</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H5" s="7">
         <v>110</v>
@@ -3945,13 +3921,13 @@
         <v>107091</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M5" s="7">
         <v>217</v>
@@ -3960,13 +3936,13 @@
         <v>218116</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,13 +4010,13 @@
         <v>36086</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>164</v>
+        <v>238</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H7" s="7">
         <v>41</v>
@@ -4049,13 +4025,13 @@
         <v>42407</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="M7" s="7">
         <v>78</v>
@@ -4064,13 +4040,13 @@
         <v>78493</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>241</v>
+        <v>52</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,13 +4061,13 @@
         <v>522168</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>174</v>
+        <v>246</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H8" s="7">
         <v>510</v>
@@ -4100,13 +4076,13 @@
         <v>517072</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="M8" s="7">
         <v>1012</v>
@@ -4115,13 +4091,13 @@
         <v>1039240</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>249</v>
+        <v>60</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,13 +4165,13 @@
         <v>60475</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="H10" s="7">
         <v>44</v>
@@ -4204,13 +4180,13 @@
         <v>48599</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="M10" s="7">
         <v>101</v>
@@ -4219,13 +4195,13 @@
         <v>109074</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>205</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,13 +4216,13 @@
         <v>961956</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>61</v>
+        <v>263</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H11" s="7">
         <v>933</v>
@@ -4255,13 +4231,13 @@
         <v>994314</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="M11" s="7">
         <v>1827</v>
@@ -4270,13 +4246,13 @@
         <v>1956270</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>268</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4344,13 +4320,13 @@
         <v>36666</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -4359,13 +4335,13 @@
         <v>31561</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="M13" s="7">
         <v>62</v>
@@ -4374,13 +4350,13 @@
         <v>68227</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4395,13 +4371,13 @@
         <v>722886</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="H14" s="7">
         <v>708</v>
@@ -4410,13 +4386,13 @@
         <v>753450</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="M14" s="7">
         <v>1370</v>
@@ -4425,13 +4401,13 @@
         <v>1476336</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4487,7 +4463,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4499,13 +4475,13 @@
         <v>60886</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="H16" s="7">
         <v>54</v>
@@ -4514,13 +4490,13 @@
         <v>62618</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>284</v>
+        <v>55</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>285</v>
+        <v>213</v>
       </c>
       <c r="M16" s="7">
         <v>113</v>
@@ -4529,13 +4505,13 @@
         <v>123504</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>181</v>
+        <v>259</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4550,13 +4526,13 @@
         <v>876681</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="H17" s="7">
         <v>905</v>
@@ -4565,13 +4541,13 @@
         <v>981161</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>292</v>
+        <v>220</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>293</v>
+        <v>63</v>
       </c>
       <c r="M17" s="7">
         <v>1778</v>
@@ -4580,13 +4556,13 @@
         <v>1857842</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>188</v>
+        <v>266</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4654,13 +4630,13 @@
         <v>199634</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>290</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H19" s="7">
         <v>172</v>
@@ -4669,13 +4645,13 @@
         <v>191453</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="M19" s="7">
         <v>365</v>
@@ -4684,10 +4660,10 @@
         <v>391087</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>300</v>
+        <v>244</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>302</v>
@@ -4705,13 +4681,13 @@
         <v>3194716</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>297</v>
       </c>
       <c r="H20" s="7">
         <v>3166</v>
@@ -4720,13 +4696,13 @@
         <v>3353089</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="M20" s="7">
         <v>6204</v>
@@ -4735,10 +4711,10 @@
         <v>6547805</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>309</v>
@@ -4797,7 +4773,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4818,7 +4794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC66200-75AC-4EAA-9CD8-7C72B0261F21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1454946-2FD2-4A4A-A82A-6B8CA4379779}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5112,13 +5088,13 @@
         <v>38452</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>104</v>
+        <v>332</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>69</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M7" s="7">
         <v>121</v>
@@ -5127,13 +5103,13 @@
         <v>79055</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>333</v>
+        <v>198</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>239</v>
+        <v>334</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5148,13 +5124,13 @@
         <v>509221</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H8" s="7">
         <v>921</v>
@@ -5163,13 +5139,13 @@
         <v>554510</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>114</v>
+        <v>339</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M8" s="7">
         <v>1487</v>
@@ -5178,13 +5154,13 @@
         <v>1063730</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>339</v>
+        <v>208</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>248</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5252,13 +5228,13 @@
         <v>67712</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H10" s="7">
         <v>88</v>
@@ -5267,13 +5243,13 @@
         <v>62980</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M10" s="7">
         <v>153</v>
@@ -5282,13 +5258,13 @@
         <v>130692</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>181</v>
+        <v>259</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>347</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5303,13 +5279,13 @@
         <v>971536</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H11" s="7">
         <v>1428</v>
@@ -5318,13 +5294,13 @@
         <v>996494</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="M11" s="7">
         <v>2327</v>
@@ -5333,10 +5309,10 @@
         <v>1968030</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>188</v>
+        <v>266</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>353</v>
+        <v>202</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>354</v>
@@ -5410,10 +5386,10 @@
         <v>355</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>356</v>
+        <v>161</v>
       </c>
       <c r="H13" s="7">
         <v>69</v>
@@ -5422,13 +5398,13 @@
         <v>48076</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M13" s="7">
         <v>99</v>
@@ -5461,10 +5437,10 @@
         <v>361</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>362</v>
+        <v>171</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="H14" s="7">
         <v>978</v>
@@ -5473,10 +5449,10 @@
         <v>826295</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>364</v>
@@ -5550,7 +5526,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5568,7 +5544,7 @@
         <v>368</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>369</v>
+        <v>212</v>
       </c>
       <c r="H16" s="7">
         <v>110</v>
@@ -5577,13 +5553,13 @@
         <v>75188</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="M16" s="7">
         <v>172</v>
@@ -5592,10 +5568,10 @@
         <v>136000</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>373</v>
+        <v>33</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>39</v>
+        <v>195</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>329</v>
@@ -5613,13 +5589,13 @@
         <v>904591</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>375</v>
+        <v>219</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="H17" s="7">
         <v>1452</v>
@@ -5628,13 +5604,13 @@
         <v>1075244</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>379</v>
+        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>2396</v>
@@ -5643,13 +5619,13 @@
         <v>1979835</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>380</v>
+        <v>43</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>49</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5717,13 +5693,13 @@
         <v>204962</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="H19" s="7">
         <v>359</v>
@@ -5732,13 +5708,13 @@
         <v>232277</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>384</v>
+        <v>91</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>192</v>
+        <v>378</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>333</v>
+        <v>198</v>
       </c>
       <c r="M19" s="7">
         <v>571</v>
@@ -5747,10 +5723,10 @@
         <v>437239</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>386</v>
+        <v>178</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>17</v>
@@ -5768,13 +5744,13 @@
         <v>3180266</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="H20" s="7">
         <v>5005</v>
@@ -5783,13 +5759,13 @@
         <v>3575695</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>390</v>
+        <v>99</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>339</v>
+        <v>208</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>199</v>
+        <v>383</v>
       </c>
       <c r="M20" s="7">
         <v>8169</v>
@@ -5798,13 +5774,13 @@
         <v>6755960</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>27</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>392</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5860,7 +5836,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P15-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P15-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{749C097E-2DD9-4483-A253-C6E70F13A9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3889A933-7FA4-44F2-B569-10E73726ABB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C88CC49B-CDB9-4655-9525-337A8A44704F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F477C014-9058-4138-B103-719B9FB7A88E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="411">
   <si>
     <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>7,41%</t>
   </si>
   <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
   </si>
   <si>
     <t>6,18%</t>
   </si>
   <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
   </si>
   <si>
     <t>6,81%</t>
   </si>
   <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>92,59%</t>
   </si>
   <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
   </si>
   <si>
     <t>93,82%</t>
   </si>
   <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
   </si>
   <si>
     <t>93,19%</t>
   </si>
   <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1060 +140,1138 @@
     <t>8,5%</t>
   </si>
   <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2023 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
     <t>6,43%</t>
   </si>
   <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
   </si>
   <si>
     <t>93,57%</t>
   </si>
   <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
   </si>
   <si>
     <t>6,1%</t>
   </si>
   <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
   </si>
   <si>
     <t>93,9%</t>
   </si>
   <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2023 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
   </si>
 </sst>
 </file>
@@ -1605,7 +1683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{710044CF-496F-4BBD-B240-720ABDFE22D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A566FA2-488A-45F7-9687-B4A5FB277EAF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2072,10 +2150,10 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2090,13 +2168,13 @@
         <v>877556</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>854</v>
@@ -2105,13 +2183,13 @@
         <v>909688</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>1672</v>
@@ -2123,10 +2201,10 @@
         <v>21</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2182,7 +2260,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2194,13 +2272,13 @@
         <v>45725</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>35</v>
@@ -2209,13 +2287,13 @@
         <v>34931</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>79</v>
@@ -2224,13 +2302,13 @@
         <v>80656</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2245,13 +2323,13 @@
         <v>632784</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>661</v>
@@ -2260,13 +2338,13 @@
         <v>648910</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>1258</v>
@@ -2275,13 +2353,13 @@
         <v>1281694</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2337,7 +2415,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2349,13 +2427,13 @@
         <v>55333</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>44</v>
@@ -2364,13 +2442,13 @@
         <v>46347</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>101</v>
@@ -2379,13 +2457,13 @@
         <v>101680</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2400,13 +2478,13 @@
         <v>886889</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
         <v>953</v>
@@ -2415,13 +2493,13 @@
         <v>992265</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>1890</v>
@@ -2430,13 +2508,13 @@
         <v>1879154</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2504,13 +2582,13 @@
         <v>243056</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H19" s="7">
         <v>169</v>
@@ -2519,13 +2597,13 @@
         <v>175391</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>406</v>
@@ -2534,13 +2612,13 @@
         <v>418447</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2552,16 +2630,16 @@
         <v>2977</v>
       </c>
       <c r="D20" s="7">
-        <v>3033487</v>
+        <v>3033488</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H20" s="7">
         <v>3128</v>
@@ -2570,28 +2648,28 @@
         <v>3203807</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>6105</v>
       </c>
       <c r="N20" s="7">
-        <v>6237294</v>
+        <v>6237293</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2603,7 +2681,7 @@
         <v>3214</v>
       </c>
       <c r="D21" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2633,7 +2711,7 @@
         <v>6511</v>
       </c>
       <c r="N21" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2647,7 +2725,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2668,7 +2746,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA81E02-15EB-4E5C-9CEC-0B3B2435FCF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCF7149-AF98-44B7-A424-E313CFCD747D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2685,7 +2763,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2792,13 +2870,13 @@
         <v>15899</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -2807,13 +2885,13 @@
         <v>5903</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M4" s="7">
         <v>22</v>
@@ -2822,13 +2900,13 @@
         <v>21802</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,13 +2921,13 @@
         <v>99866</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H5" s="7">
         <v>94</v>
@@ -2858,13 +2936,13 @@
         <v>106002</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M5" s="7">
         <v>199</v>
@@ -2873,13 +2951,13 @@
         <v>205868</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2947,13 +3025,13 @@
         <v>43123</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H7" s="7">
         <v>45</v>
@@ -2962,13 +3040,13 @@
         <v>47617</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M7" s="7">
         <v>88</v>
@@ -2977,13 +3055,13 @@
         <v>90740</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2998,13 +3076,13 @@
         <v>544581</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H8" s="7">
         <v>506</v>
@@ -3013,13 +3091,13 @@
         <v>537528</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M8" s="7">
         <v>1015</v>
@@ -3028,13 +3106,13 @@
         <v>1082109</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3102,13 +3180,13 @@
         <v>81289</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H10" s="7">
         <v>70</v>
@@ -3117,13 +3195,13 @@
         <v>74623</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M10" s="7">
         <v>143</v>
@@ -3132,10 +3210,10 @@
         <v>155913</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>164</v>
+        <v>33</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>165</v>
@@ -3174,7 +3252,7 @@
         <v>170</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>171</v>
+        <v>95</v>
       </c>
       <c r="M11" s="7">
         <v>1733</v>
@@ -3183,13 +3261,13 @@
         <v>1894218</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>173</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>174</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3245,7 +3323,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3257,13 +3335,13 @@
         <v>58408</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H13" s="7">
         <v>53</v>
@@ -3272,13 +3350,13 @@
         <v>57045</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M13" s="7">
         <v>110</v>
@@ -3287,13 +3365,13 @@
         <v>115453</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3308,13 +3386,13 @@
         <v>699215</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H14" s="7">
         <v>652</v>
@@ -3323,13 +3401,13 @@
         <v>720129</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M14" s="7">
         <v>1284</v>
@@ -3338,13 +3416,13 @@
         <v>1419344</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3400,7 +3478,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3412,13 +3490,13 @@
         <v>89193</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H16" s="7">
         <v>68</v>
@@ -3427,13 +3505,13 @@
         <v>72284</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>195</v>
+        <v>39</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M16" s="7">
         <v>154</v>
@@ -3442,13 +3520,13 @@
         <v>161478</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3463,13 +3541,13 @@
         <v>858546</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H17" s="7">
         <v>935</v>
@@ -3478,13 +3556,13 @@
         <v>979617</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>205</v>
+        <v>49</v>
       </c>
       <c r="M17" s="7">
         <v>1759</v>
@@ -3493,13 +3571,13 @@
         <v>1838162</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3567,13 +3645,13 @@
         <v>287913</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H19" s="7">
         <v>241</v>
@@ -3582,13 +3660,13 @@
         <v>257472</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>208</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M19" s="7">
         <v>517</v>
@@ -3597,13 +3675,13 @@
         <v>545385</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>213</v>
+        <v>56</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3618,13 +3696,13 @@
         <v>3138866</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>202</v>
+        <v>21</v>
       </c>
       <c r="H20" s="7">
         <v>3057</v>
@@ -3633,13 +3711,13 @@
         <v>3300837</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>216</v>
       </c>
       <c r="M20" s="7">
         <v>5990</v>
@@ -3648,13 +3726,13 @@
         <v>6439703</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>220</v>
+        <v>63</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3710,7 +3788,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3731,7 +3809,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8E0483-3523-48FF-8127-F88761DB5ABC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E43A82-07F5-46E9-86B2-218A23E671F1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3748,7 +3826,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3855,13 +3933,13 @@
         <v>5521</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>67</v>
+        <v>220</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -3870,13 +3948,13 @@
         <v>6269</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -3885,13 +3963,13 @@
         <v>11790</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3906,13 +3984,13 @@
         <v>111025</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H5" s="7">
         <v>110</v>
@@ -3921,13 +3999,13 @@
         <v>107091</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M5" s="7">
         <v>217</v>
@@ -3936,13 +4014,13 @@
         <v>218116</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,13 +4088,13 @@
         <v>36086</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H7" s="7">
         <v>41</v>
@@ -4025,13 +4103,13 @@
         <v>42407</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M7" s="7">
         <v>78</v>
@@ -4040,13 +4118,13 @@
         <v>78493</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>52</v>
+        <v>242</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,13 +4139,13 @@
         <v>522168</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H8" s="7">
         <v>510</v>
@@ -4076,13 +4154,13 @@
         <v>517072</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M8" s="7">
         <v>1012</v>
@@ -4091,7 +4169,7 @@
         <v>1039240</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>60</v>
+        <v>251</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>252</v>
@@ -4183,10 +4261,10 @@
         <v>257</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M10" s="7">
         <v>101</v>
@@ -4195,13 +4273,13 @@
         <v>109074</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>261</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,13 +4294,13 @@
         <v>961956</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="H11" s="7">
         <v>933</v>
@@ -4231,13 +4309,13 @@
         <v>994314</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>267</v>
+        <v>46</v>
       </c>
       <c r="M11" s="7">
         <v>1827</v>
@@ -4246,13 +4324,13 @@
         <v>1956270</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>268</v>
+        <v>43</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4308,7 +4386,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4320,13 +4398,13 @@
         <v>36666</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>17</v>
+        <v>268</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -4335,13 +4413,13 @@
         <v>31561</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M13" s="7">
         <v>62</v>
@@ -4350,13 +4428,13 @@
         <v>68227</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>276</v>
+        <v>36</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4371,13 +4449,13 @@
         <v>722886</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>27</v>
+        <v>275</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H14" s="7">
         <v>708</v>
@@ -4386,13 +4464,13 @@
         <v>753450</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="M14" s="7">
         <v>1370</v>
@@ -4401,13 +4479,13 @@
         <v>1476336</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>285</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4463,7 +4541,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4475,13 +4553,13 @@
         <v>60886</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H16" s="7">
         <v>54</v>
@@ -4490,13 +4568,13 @@
         <v>62618</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>213</v>
+        <v>286</v>
       </c>
       <c r="M16" s="7">
         <v>113</v>
@@ -4505,13 +4583,13 @@
         <v>123504</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>290</v>
+        <v>106</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4526,13 +4604,13 @@
         <v>876681</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H17" s="7">
         <v>905</v>
@@ -4541,13 +4619,13 @@
         <v>981161</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>220</v>
+        <v>293</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>63</v>
+        <v>262</v>
       </c>
       <c r="M17" s="7">
         <v>1778</v>
@@ -4556,13 +4634,13 @@
         <v>1857842</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>297</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4630,13 +4708,13 @@
         <v>199634</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="H19" s="7">
         <v>172</v>
@@ -4645,13 +4723,13 @@
         <v>191453</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="M19" s="7">
         <v>365</v>
@@ -4660,13 +4738,13 @@
         <v>391087</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4687,7 +4765,7 @@
         <v>305</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="H20" s="7">
         <v>3166</v>
@@ -4696,13 +4774,13 @@
         <v>3353089</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M20" s="7">
         <v>6204</v>
@@ -4714,10 +4792,10 @@
         <v>253</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4773,7 +4851,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4794,7 +4872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1454946-2FD2-4A4A-A82A-6B8CA4379779}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{896C8628-9F06-4FF3-91C9-EA706922C16D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4811,7 +4889,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4918,13 +4996,13 @@
         <v>6016</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H4" s="7">
         <v>17</v>
@@ -4933,13 +5011,13 @@
         <v>7580</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M4" s="7">
         <v>26</v>
@@ -4948,13 +5026,13 @@
         <v>13596</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4969,13 +5047,13 @@
         <v>95966</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H5" s="7">
         <v>226</v>
@@ -4984,13 +5062,13 @@
         <v>123153</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M5" s="7">
         <v>335</v>
@@ -4999,13 +5077,13 @@
         <v>219119</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5073,13 +5151,13 @@
         <v>40602</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>329</v>
+        <v>76</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>331</v>
+        <v>175</v>
       </c>
       <c r="H7" s="7">
         <v>75</v>
@@ -5091,10 +5169,10 @@
         <v>332</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>69</v>
+        <v>333</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M7" s="7">
         <v>121</v>
@@ -5103,13 +5181,13 @@
         <v>79055</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>198</v>
+        <v>335</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5124,10 +5202,10 @@
         <v>509221</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>336</v>
+        <v>84</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>337</v>
+        <v>182</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>338</v>
@@ -5145,7 +5223,7 @@
         <v>340</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>77</v>
+        <v>341</v>
       </c>
       <c r="M8" s="7">
         <v>1487</v>
@@ -5154,13 +5232,13 @@
         <v>1063730</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>208</v>
+        <v>342</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5228,13 +5306,13 @@
         <v>67712</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H10" s="7">
         <v>88</v>
@@ -5243,13 +5321,13 @@
         <v>62980</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>257</v>
+        <v>349</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="M10" s="7">
         <v>153</v>
@@ -5258,13 +5336,13 @@
         <v>130692</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>192</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5279,13 +5357,13 @@
         <v>971536</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="H11" s="7">
         <v>1428</v>
@@ -5294,13 +5372,13 @@
         <v>996494</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>265</v>
+        <v>358</v>
       </c>
       <c r="M11" s="7">
         <v>2327</v>
@@ -5309,13 +5387,13 @@
         <v>1968030</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>202</v>
+        <v>359</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5371,7 +5449,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5383,13 +5461,13 @@
         <v>29820</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>273</v>
+        <v>362</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>161</v>
+        <v>363</v>
       </c>
       <c r="H13" s="7">
         <v>69</v>
@@ -5398,13 +5476,13 @@
         <v>48076</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="M13" s="7">
         <v>99</v>
@@ -5413,13 +5491,13 @@
         <v>77896</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>14</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5434,13 +5512,13 @@
         <v>698952</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>171</v>
+        <v>371</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>282</v>
+        <v>372</v>
       </c>
       <c r="H14" s="7">
         <v>978</v>
@@ -5449,13 +5527,13 @@
         <v>826295</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="M14" s="7">
         <v>1624</v>
@@ -5464,13 +5542,13 @@
         <v>1525246</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>24</v>
+        <v>377</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5526,7 +5604,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5538,13 +5616,13 @@
         <v>60812</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>212</v>
+        <v>381</v>
       </c>
       <c r="H16" s="7">
         <v>110</v>
@@ -5553,13 +5631,13 @@
         <v>75188</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>242</v>
+        <v>126</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="M16" s="7">
         <v>172</v>
@@ -5568,13 +5646,13 @@
         <v>136000</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>33</v>
+        <v>384</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>195</v>
+        <v>385</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>329</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5589,13 +5667,13 @@
         <v>904591</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>219</v>
+        <v>388</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="H17" s="7">
         <v>1452</v>
@@ -5604,13 +5682,13 @@
         <v>1075244</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>251</v>
+        <v>135</v>
       </c>
       <c r="M17" s="7">
         <v>2396</v>
@@ -5619,13 +5697,13 @@
         <v>1979835</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>43</v>
+        <v>392</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>336</v>
+        <v>393</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>205</v>
+        <v>394</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5693,13 +5771,13 @@
         <v>204962</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="H19" s="7">
         <v>359</v>
@@ -5708,13 +5786,13 @@
         <v>232277</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>91</v>
+        <v>398</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>378</v>
+        <v>399</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>198</v>
+        <v>400</v>
       </c>
       <c r="M19" s="7">
         <v>571</v>
@@ -5723,13 +5801,13 @@
         <v>437239</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>379</v>
+        <v>145</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>178</v>
+        <v>401</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>17</v>
+        <v>402</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5744,13 +5822,13 @@
         <v>3180266</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>380</v>
+        <v>403</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>381</v>
+        <v>404</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>382</v>
+        <v>405</v>
       </c>
       <c r="H20" s="7">
         <v>5005</v>
@@ -5759,28 +5837,28 @@
         <v>3575695</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>99</v>
+        <v>406</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>208</v>
+        <v>407</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="M20" s="7">
         <v>8169</v>
       </c>
       <c r="N20" s="7">
-        <v>6755960</v>
+        <v>6755961</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>384</v>
+        <v>155</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>27</v>
+        <v>409</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>187</v>
+        <v>410</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5822,7 +5900,7 @@
         <v>8740</v>
       </c>
       <c r="N21" s="7">
-        <v>7193199</v>
+        <v>7193200</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5836,7 +5914,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P15-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P15-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3889A933-7FA4-44F2-B569-10E73726ABB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC6F9C09-C9EA-4A56-9EF1-15592E40DD17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F477C014-9058-4138-B103-719B9FB7A88E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2213B641-A8AD-4D53-A650-63A368FE2C86}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="338">
   <si>
     <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,909 +68,774 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
     <t>7,41%</t>
   </si>
   <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
   </si>
   <si>
     <t>92,59%</t>
   </si>
   <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>8,5%</t>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
   </si>
   <si>
     <t>6,41%</t>
   </si>
   <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
   </si>
   <si>
     <t>3,42%</t>
   </si>
   <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
   </si>
   <si>
     <t>96,58%</t>
   </si>
   <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
     <t>94,72%</t>
   </si>
   <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
   </si>
   <si>
     <t>5,64%</t>
   </si>
   <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
   </si>
   <si>
     <t>94,36%</t>
   </si>
   <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
     <t>93,79%</t>
   </si>
   <si>
@@ -980,298 +845,214 @@
     <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2023 (Tasa respuesta: 99,97%)</t>
   </si>
   <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
   </si>
   <si>
     <t>6,48%</t>
   </si>
   <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
   </si>
   <si>
     <t>93,52%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
   </si>
 </sst>
 </file>
@@ -1683,8 +1464,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A566FA2-488A-45F7-9687-B4A5FB277EAF}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66C1205-1824-48F5-8E54-9DBCDF60C984}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1801,10 +1582,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D4" s="7">
-        <v>8553</v>
+        <v>57754</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1816,10 +1597,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="I4" s="7">
-        <v>6973</v>
+        <v>35407</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1831,10 +1612,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="N4" s="7">
-        <v>15526</v>
+        <v>93162</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1852,10 +1633,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>98</v>
+        <v>625</v>
       </c>
       <c r="D5" s="7">
-        <v>106805</v>
+        <v>636258</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1867,10 +1648,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>120</v>
+        <v>660</v>
       </c>
       <c r="I5" s="7">
-        <v>105782</v>
+        <v>652944</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1882,10 +1663,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>218</v>
+        <v>1285</v>
       </c>
       <c r="N5" s="7">
-        <v>212587</v>
+        <v>1289201</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1903,10 +1684,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1918,10 +1699,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1933,10 +1714,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1956,10 +1737,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="D7" s="7">
-        <v>49202</v>
+        <v>84244</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1971,10 +1752,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="I7" s="7">
-        <v>28434</v>
+        <v>58705</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1986,10 +1767,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="N7" s="7">
-        <v>77636</v>
+        <v>142949</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2007,10 +1788,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>527</v>
+        <v>818</v>
       </c>
       <c r="D8" s="7">
-        <v>529452</v>
+        <v>877556</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2022,10 +1803,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>540</v>
+        <v>854</v>
       </c>
       <c r="I8" s="7">
-        <v>547162</v>
+        <v>909688</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2037,10 +1818,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1067</v>
+        <v>1672</v>
       </c>
       <c r="N8" s="7">
-        <v>1076614</v>
+        <v>1787244</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2058,10 +1839,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2073,10 +1854,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2088,10 +1869,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2111,43 +1892,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="D10" s="7">
-        <v>84244</v>
+        <v>45725</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>35</v>
+      </c>
+      <c r="I10" s="7">
+        <v>34931</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="7">
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="7">
-        <v>58705</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>79</v>
+      </c>
+      <c r="N10" s="7">
+        <v>80656</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="M10" s="7">
-        <v>132</v>
-      </c>
-      <c r="N10" s="7">
-        <v>142949</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>57</v>
@@ -2162,43 +1943,43 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>818</v>
+        <v>597</v>
       </c>
       <c r="D11" s="7">
-        <v>877556</v>
+        <v>632784</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>661</v>
+      </c>
+      <c r="I11" s="7">
+        <v>648910</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="7">
-        <v>854</v>
-      </c>
-      <c r="I11" s="7">
-        <v>909688</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>1258</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1281694</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1672</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1787244</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>65</v>
@@ -2213,10 +1994,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2228,10 +2009,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2243,10 +2024,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2266,10 +2047,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D13" s="7">
-        <v>45725</v>
+        <v>55333</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>68</v>
@@ -2281,10 +2062,10 @@
         <v>70</v>
       </c>
       <c r="H13" s="7">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="I13" s="7">
-        <v>34931</v>
+        <v>46347</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>71</v>
@@ -2296,10 +2077,10 @@
         <v>73</v>
       </c>
       <c r="M13" s="7">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="N13" s="7">
-        <v>80656</v>
+        <v>101680</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>74</v>
@@ -2308,7 +2089,7 @@
         <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2317,49 +2098,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>597</v>
+        <v>937</v>
       </c>
       <c r="D14" s="7">
-        <v>632784</v>
+        <v>886889</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>953</v>
+      </c>
+      <c r="I14" s="7">
+        <v>992265</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="7">
-        <v>661</v>
-      </c>
-      <c r="I14" s="7">
-        <v>648910</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>1890</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1879154</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="M14" s="7">
-        <v>1258</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1281694</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2368,10 +2149,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2383,10 +2164,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2398,10 +2179,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2415,55 +2196,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>57</v>
+        <v>237</v>
       </c>
       <c r="D16" s="7">
-        <v>55333</v>
+        <v>243056</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" s="7">
+        <v>169</v>
+      </c>
+      <c r="I16" s="7">
+        <v>175391</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H16" s="7">
-        <v>44</v>
-      </c>
-      <c r="I16" s="7">
-        <v>46347</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>406</v>
+      </c>
+      <c r="N16" s="7">
+        <v>418447</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="M16" s="7">
-        <v>101</v>
-      </c>
-      <c r="N16" s="7">
-        <v>101680</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2472,49 +2253,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>937</v>
+        <v>2977</v>
       </c>
       <c r="D17" s="7">
-        <v>886889</v>
+        <v>3033487</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>3128</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3203806</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H17" s="7">
-        <v>953</v>
-      </c>
-      <c r="I17" s="7">
-        <v>992265</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>6105</v>
+      </c>
+      <c r="N17" s="7">
+        <v>6237294</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="M17" s="7">
-        <v>1890</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1879154</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2523,10 +2304,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2538,10 +2319,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2553,10 +2334,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N18" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2569,171 +2350,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>237</v>
-      </c>
-      <c r="D19" s="7">
-        <v>243056</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H19" s="7">
-        <v>169</v>
-      </c>
-      <c r="I19" s="7">
-        <v>175391</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M19" s="7">
-        <v>406</v>
-      </c>
-      <c r="N19" s="7">
-        <v>418447</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2977</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3033488</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3128</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3203807</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6105</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6237293</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2746,8 +2371,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCF7149-AF98-44B7-A424-E313CFCD747D}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94B37875-CE7D-4E61-8DE6-9BF02F8C6311}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2763,7 +2388,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2864,49 +2489,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="D4" s="7">
-        <v>15899</v>
+        <v>59022</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="I4" s="7">
-        <v>5903</v>
+        <v>53520</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="M4" s="7">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="N4" s="7">
-        <v>21802</v>
+        <v>112542</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2915,49 +2540,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>105</v>
+        <v>614</v>
       </c>
       <c r="D5" s="7">
-        <v>99866</v>
+        <v>644447</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="H5" s="7">
-        <v>94</v>
+        <v>600</v>
       </c>
       <c r="I5" s="7">
-        <v>106002</v>
+        <v>643530</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="M5" s="7">
-        <v>199</v>
+        <v>1214</v>
       </c>
       <c r="N5" s="7">
-        <v>205868</v>
+        <v>1287977</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2966,10 +2591,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2981,10 +2606,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2996,10 +2621,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3019,49 +2644,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="D7" s="7">
-        <v>43123</v>
+        <v>81289</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" s="7">
+        <v>70</v>
+      </c>
+      <c r="I7" s="7">
+        <v>74623</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M7" s="7">
         <v>143</v>
       </c>
-      <c r="H7" s="7">
-        <v>45</v>
-      </c>
-      <c r="I7" s="7">
-        <v>47617</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="M7" s="7">
-        <v>88</v>
-      </c>
       <c r="N7" s="7">
-        <v>90740</v>
+        <v>155913</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3070,49 +2695,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>509</v>
+        <v>863</v>
       </c>
       <c r="D8" s="7">
-        <v>544581</v>
+        <v>936658</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="H8" s="7">
-        <v>506</v>
+        <v>870</v>
       </c>
       <c r="I8" s="7">
-        <v>537528</v>
+        <v>957561</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>76</v>
       </c>
       <c r="M8" s="7">
-        <v>1015</v>
+        <v>1733</v>
       </c>
       <c r="N8" s="7">
-        <v>1082109</v>
+        <v>1894218</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3121,10 +2746,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3136,10 +2761,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>940</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1032184</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3151,10 +2776,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1876</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2050131</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3174,49 +2799,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D10" s="7">
-        <v>81289</v>
+        <v>58408</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="H10" s="7">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="I10" s="7">
-        <v>74623</v>
+        <v>57045</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="M10" s="7">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="N10" s="7">
-        <v>155913</v>
+        <v>115453</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>33</v>
+        <v>145</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3225,49 +2850,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>863</v>
+        <v>632</v>
       </c>
       <c r="D11" s="7">
-        <v>936658</v>
+        <v>699215</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="H11" s="7">
-        <v>870</v>
+        <v>652</v>
       </c>
       <c r="I11" s="7">
-        <v>957561</v>
+        <v>720129</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>95</v>
+        <v>152</v>
       </c>
       <c r="M11" s="7">
-        <v>1733</v>
+        <v>1284</v>
       </c>
       <c r="N11" s="7">
-        <v>1894218</v>
+        <v>1419344</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>43</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3276,10 +2901,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3291,10 +2916,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>940</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1032184</v>
+        <v>777174</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3306,10 +2931,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1876</v>
+        <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>2050131</v>
+        <v>1534797</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3329,49 +2954,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="D13" s="7">
-        <v>58408</v>
+        <v>89193</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="H13" s="7">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="I13" s="7">
-        <v>57045</v>
+        <v>72284</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="M13" s="7">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="N13" s="7">
-        <v>115453</v>
+        <v>161478</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3380,49 +3005,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>632</v>
+        <v>824</v>
       </c>
       <c r="D14" s="7">
-        <v>699215</v>
+        <v>858546</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="H14" s="7">
-        <v>652</v>
+        <v>935</v>
       </c>
       <c r="I14" s="7">
-        <v>720129</v>
+        <v>979617</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="M14" s="7">
-        <v>1284</v>
+        <v>1759</v>
       </c>
       <c r="N14" s="7">
-        <v>1419344</v>
+        <v>1838162</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,10 +3056,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3446,10 +3071,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3461,10 +3086,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N15" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3478,55 +3103,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>86</v>
+        <v>276</v>
       </c>
       <c r="D16" s="7">
-        <v>89193</v>
+        <v>287913</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>190</v>
+        <v>38</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="H16" s="7">
-        <v>68</v>
+        <v>241</v>
       </c>
       <c r="I16" s="7">
-        <v>72284</v>
+        <v>257472</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="M16" s="7">
-        <v>154</v>
+        <v>517</v>
       </c>
       <c r="N16" s="7">
-        <v>161478</v>
+        <v>545385</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>194</v>
+        <v>37</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,49 +3160,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>824</v>
+        <v>2933</v>
       </c>
       <c r="D17" s="7">
-        <v>858546</v>
+        <v>3138866</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>199</v>
+        <v>47</v>
       </c>
       <c r="H17" s="7">
-        <v>935</v>
+        <v>3057</v>
       </c>
       <c r="I17" s="7">
-        <v>979617</v>
+        <v>3300837</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>49</v>
+        <v>185</v>
       </c>
       <c r="M17" s="7">
-        <v>1759</v>
+        <v>5990</v>
       </c>
       <c r="N17" s="7">
-        <v>1838162</v>
+        <v>6439703</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>202</v>
+        <v>45</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,10 +3211,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3601,10 +3226,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1003</v>
+        <v>3298</v>
       </c>
       <c r="I18" s="7">
-        <v>1051901</v>
+        <v>3558309</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3616,10 +3241,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1913</v>
+        <v>6507</v>
       </c>
       <c r="N18" s="7">
-        <v>1999640</v>
+        <v>6985088</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3632,171 +3257,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>276</v>
-      </c>
-      <c r="D19" s="7">
-        <v>287913</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H19" s="7">
-        <v>241</v>
-      </c>
-      <c r="I19" s="7">
-        <v>257472</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="M19" s="7">
-        <v>517</v>
-      </c>
-      <c r="N19" s="7">
-        <v>545385</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2933</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3138866</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3057</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3300837</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5990</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6439703</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3298</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3558309</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6507</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6985088</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3809,8 +3278,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E43A82-07F5-46E9-86B2-218A23E671F1}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E6BB3D-7C5C-400A-8412-595048342C9D}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3826,7 +3295,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3927,49 +3396,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="D4" s="7">
-        <v>5521</v>
+        <v>41607</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="I4" s="7">
-        <v>6269</v>
+        <v>48675</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>223</v>
+        <v>125</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="M4" s="7">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="N4" s="7">
-        <v>11790</v>
+        <v>90283</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>194</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3978,49 +3447,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>107</v>
+        <v>609</v>
       </c>
       <c r="D5" s="7">
-        <v>111025</v>
+        <v>633193</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="H5" s="7">
-        <v>110</v>
+        <v>620</v>
       </c>
       <c r="I5" s="7">
-        <v>107091</v>
+        <v>624164</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>231</v>
+        <v>133</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="M5" s="7">
-        <v>217</v>
+        <v>1229</v>
       </c>
       <c r="N5" s="7">
-        <v>218116</v>
+        <v>1257356</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>101</v>
+        <v>202</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4029,10 +3498,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4044,10 +3513,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4059,10 +3528,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4082,49 +3551,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="D7" s="7">
-        <v>36086</v>
+        <v>60475</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="H7" s="7">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I7" s="7">
-        <v>42407</v>
+        <v>48599</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="M7" s="7">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="N7" s="7">
-        <v>78493</v>
+        <v>109074</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>244</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,49 +3602,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>502</v>
+        <v>894</v>
       </c>
       <c r="D8" s="7">
-        <v>522168</v>
+        <v>961956</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="H8" s="7">
-        <v>510</v>
+        <v>933</v>
       </c>
       <c r="I8" s="7">
-        <v>517072</v>
+        <v>994314</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="M8" s="7">
-        <v>1012</v>
+        <v>1827</v>
       </c>
       <c r="N8" s="7">
-        <v>1039240</v>
+        <v>1956270</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>252</v>
+        <v>137</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,10 +3653,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4199,10 +3668,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4214,10 +3683,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4237,49 +3706,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D10" s="7">
-        <v>60475</v>
+        <v>36666</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="H10" s="7">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="I10" s="7">
-        <v>48599</v>
+        <v>31561</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>36</v>
+        <v>225</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="M10" s="7">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="N10" s="7">
-        <v>109074</v>
+        <v>68227</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>126</v>
+        <v>227</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>259</v>
+        <v>209</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>33</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,49 +3757,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>894</v>
+        <v>662</v>
       </c>
       <c r="D11" s="7">
-        <v>961956</v>
+        <v>722886</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="H11" s="7">
-        <v>933</v>
+        <v>708</v>
       </c>
       <c r="I11" s="7">
-        <v>994314</v>
+        <v>753450</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>46</v>
+        <v>234</v>
       </c>
       <c r="M11" s="7">
-        <v>1827</v>
+        <v>1370</v>
       </c>
       <c r="N11" s="7">
-        <v>1956270</v>
+        <v>1476336</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>135</v>
+        <v>235</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>43</v>
+        <v>236</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>265</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,10 +3808,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4354,10 +3823,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4369,10 +3838,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4392,49 +3861,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="D13" s="7">
-        <v>36666</v>
+        <v>60886</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="H13" s="7">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="I13" s="7">
-        <v>31561</v>
+        <v>62618</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>270</v>
+        <v>206</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="M13" s="7">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="N13" s="7">
-        <v>68227</v>
+        <v>123504</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4443,49 +3912,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>662</v>
+        <v>873</v>
       </c>
       <c r="D14" s="7">
-        <v>722886</v>
+        <v>876681</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="H14" s="7">
-        <v>708</v>
+        <v>905</v>
       </c>
       <c r="I14" s="7">
-        <v>753450</v>
+        <v>981161</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>279</v>
+        <v>215</v>
       </c>
       <c r="M14" s="7">
-        <v>1370</v>
+        <v>1778</v>
       </c>
       <c r="N14" s="7">
-        <v>1476336</v>
+        <v>1857842</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4494,10 +3963,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4509,10 +3978,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4524,10 +3993,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4541,55 +4010,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>59</v>
+        <v>193</v>
       </c>
       <c r="D16" s="7">
-        <v>60886</v>
+        <v>199634</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="H16" s="7">
-        <v>54</v>
+        <v>172</v>
       </c>
       <c r="I16" s="7">
-        <v>62618</v>
+        <v>191453</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>285</v>
+        <v>18</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>286</v>
-      </c>
       <c r="M16" s="7">
-        <v>113</v>
+        <v>365</v>
       </c>
       <c r="N16" s="7">
-        <v>123504</v>
+        <v>391087</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>106</v>
+        <v>257</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4598,49 +4067,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>873</v>
+        <v>3038</v>
       </c>
       <c r="D17" s="7">
-        <v>876681</v>
+        <v>3194716</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="H17" s="7">
-        <v>905</v>
+        <v>3166</v>
       </c>
       <c r="I17" s="7">
-        <v>981161</v>
+        <v>3353089</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>292</v>
+        <v>29</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M17" s="7">
-        <v>1778</v>
+        <v>6204</v>
       </c>
       <c r="N17" s="7">
-        <v>1857842</v>
+        <v>6547805</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>115</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4649,10 +4118,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4664,10 +4133,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4679,10 +4148,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4695,171 +4164,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>193</v>
-      </c>
-      <c r="D19" s="7">
-        <v>199634</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="H19" s="7">
-        <v>172</v>
-      </c>
-      <c r="I19" s="7">
-        <v>191453</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="M19" s="7">
-        <v>365</v>
-      </c>
-      <c r="N19" s="7">
-        <v>391087</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3038</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3194716</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3166</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3353089</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6204</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6547805</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4872,8 +4185,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{896C8628-9F06-4FF3-91C9-EA706922C16D}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{045B3FBB-67D4-4310-BAC2-6B5758C98A5F}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4889,7 +4202,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>312</v>
+        <v>267</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4990,49 +4303,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D4" s="7">
-        <v>6016</v>
+        <v>44881</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>313</v>
+        <v>268</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>314</v>
+        <v>269</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="H4" s="7">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="I4" s="7">
-        <v>7580</v>
+        <v>43242</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>316</v>
+        <v>271</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>317</v>
+        <v>272</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>318</v>
+        <v>273</v>
       </c>
       <c r="M4" s="7">
-        <v>26</v>
+        <v>147</v>
       </c>
       <c r="N4" s="7">
-        <v>13596</v>
+        <v>88123</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>319</v>
+        <v>274</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>320</v>
+        <v>142</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>321</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5041,49 +4354,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>109</v>
+        <v>675</v>
       </c>
       <c r="D5" s="7">
-        <v>95966</v>
+        <v>590560</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>322</v>
+        <v>275</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>323</v>
+        <v>276</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>324</v>
+        <v>277</v>
       </c>
       <c r="H5" s="7">
-        <v>226</v>
+        <v>1147</v>
       </c>
       <c r="I5" s="7">
-        <v>123153</v>
+        <v>632510</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>325</v>
+        <v>278</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>326</v>
+        <v>279</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>327</v>
+        <v>280</v>
       </c>
       <c r="M5" s="7">
-        <v>335</v>
+        <v>1822</v>
       </c>
       <c r="N5" s="7">
-        <v>219119</v>
+        <v>1223071</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>328</v>
+        <v>281</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>329</v>
+        <v>119</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>330</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5092,10 +4405,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5107,10 +4420,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1239</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>675752</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5122,10 +4435,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1969</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1311194</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5145,49 +4458,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="D7" s="7">
-        <v>40602</v>
+        <v>67059</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>76</v>
+        <v>282</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>331</v>
+        <v>283</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>175</v>
+        <v>284</v>
       </c>
       <c r="H7" s="7">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="I7" s="7">
-        <v>38452</v>
+        <v>57234</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>332</v>
+        <v>285</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>333</v>
+        <v>190</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>334</v>
+        <v>157</v>
       </c>
       <c r="M7" s="7">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="N7" s="7">
-        <v>79055</v>
+        <v>124293</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>335</v>
+        <v>286</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>336</v>
+        <v>287</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>337</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,49 +4509,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>566</v>
+        <v>899</v>
       </c>
       <c r="D8" s="7">
-        <v>509221</v>
+        <v>1125805</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>84</v>
+        <v>289</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>182</v>
+        <v>290</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>338</v>
+        <v>291</v>
       </c>
       <c r="H8" s="7">
-        <v>921</v>
+        <v>1428</v>
       </c>
       <c r="I8" s="7">
-        <v>554510</v>
+        <v>900872</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>339</v>
+        <v>292</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>340</v>
+        <v>167</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>341</v>
+        <v>199</v>
       </c>
       <c r="M8" s="7">
-        <v>1487</v>
+        <v>2327</v>
       </c>
       <c r="N8" s="7">
-        <v>1063730</v>
+        <v>2026678</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>342</v>
+        <v>293</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>343</v>
+        <v>294</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>344</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,10 +4560,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5262,10 +4575,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>996</v>
+        <v>1516</v>
       </c>
       <c r="I9" s="7">
-        <v>592962</v>
+        <v>958106</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5277,10 +4590,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1608</v>
+        <v>2480</v>
       </c>
       <c r="N9" s="7">
-        <v>1142785</v>
+        <v>2150971</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5300,49 +4613,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="D10" s="7">
-        <v>67712</v>
+        <v>29234</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>345</v>
+        <v>296</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>346</v>
+        <v>297</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>347</v>
+        <v>298</v>
       </c>
       <c r="H10" s="7">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="I10" s="7">
-        <v>62980</v>
+        <v>44108</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>348</v>
+        <v>299</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>349</v>
+        <v>300</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>350</v>
+        <v>111</v>
       </c>
       <c r="M10" s="7">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="N10" s="7">
-        <v>130692</v>
+        <v>73342</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>351</v>
+        <v>302</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>352</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5351,49 +4664,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>899</v>
+        <v>646</v>
       </c>
       <c r="D11" s="7">
-        <v>971536</v>
+        <v>675446</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>353</v>
+        <v>303</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>354</v>
+        <v>304</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>355</v>
+        <v>305</v>
       </c>
       <c r="H11" s="7">
-        <v>1428</v>
+        <v>978</v>
       </c>
       <c r="I11" s="7">
-        <v>996494</v>
+        <v>889258</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>356</v>
+        <v>306</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>357</v>
+        <v>121</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>358</v>
+        <v>307</v>
       </c>
       <c r="M11" s="7">
-        <v>2327</v>
+        <v>1624</v>
       </c>
       <c r="N11" s="7">
-        <v>1968030</v>
+        <v>1564704</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>359</v>
+        <v>264</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>360</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5402,10 +4715,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>676</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>704680</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5417,10 +4730,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1516</v>
+        <v>1047</v>
       </c>
       <c r="I12" s="7">
-        <v>1059474</v>
+        <v>933366</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5432,10 +4745,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2480</v>
+        <v>1723</v>
       </c>
       <c r="N12" s="7">
-        <v>2098722</v>
+        <v>1638046</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5455,49 +4768,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="D13" s="7">
-        <v>29820</v>
+        <v>58885</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>361</v>
+        <v>145</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>362</v>
+        <v>310</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>363</v>
+        <v>311</v>
       </c>
       <c r="H13" s="7">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="I13" s="7">
-        <v>48076</v>
+        <v>69018</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>364</v>
+        <v>312</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>365</v>
+        <v>313</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>366</v>
+        <v>314</v>
       </c>
       <c r="M13" s="7">
-        <v>99</v>
+        <v>172</v>
       </c>
       <c r="N13" s="7">
-        <v>77896</v>
+        <v>127903</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>367</v>
+        <v>315</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>368</v>
+        <v>316</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>369</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5506,49 +4819,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>646</v>
+        <v>944</v>
       </c>
       <c r="D14" s="7">
-        <v>698952</v>
+        <v>867946</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>370</v>
+        <v>155</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>371</v>
+        <v>318</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>372</v>
+        <v>319</v>
       </c>
       <c r="H14" s="7">
-        <v>978</v>
+        <v>1452</v>
       </c>
       <c r="I14" s="7">
-        <v>826295</v>
+        <v>1025914</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>373</v>
+        <v>320</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>374</v>
+        <v>321</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>375</v>
+        <v>322</v>
       </c>
       <c r="M14" s="7">
-        <v>1624</v>
+        <v>2396</v>
       </c>
       <c r="N14" s="7">
-        <v>1525246</v>
+        <v>1893860</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>376</v>
+        <v>323</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>377</v>
+        <v>324</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>378</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5557,10 +4870,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>676</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>728772</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5572,10 +4885,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1047</v>
+        <v>1562</v>
       </c>
       <c r="I15" s="7">
-        <v>874371</v>
+        <v>1094932</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5587,10 +4900,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1723</v>
+        <v>2568</v>
       </c>
       <c r="N15" s="7">
-        <v>1603142</v>
+        <v>2021763</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5604,55 +4917,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>62</v>
+        <v>212</v>
       </c>
       <c r="D16" s="7">
-        <v>60812</v>
+        <v>200059</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>379</v>
+        <v>286</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>380</v>
+        <v>69</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>381</v>
+        <v>326</v>
       </c>
       <c r="H16" s="7">
-        <v>110</v>
+        <v>359</v>
       </c>
       <c r="I16" s="7">
-        <v>75188</v>
+        <v>213603</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>382</v>
+        <v>327</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>126</v>
+        <v>328</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>383</v>
+        <v>329</v>
       </c>
       <c r="M16" s="7">
-        <v>172</v>
+        <v>571</v>
       </c>
       <c r="N16" s="7">
-        <v>136000</v>
+        <v>413662</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>384</v>
+        <v>330</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>385</v>
+        <v>238</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>386</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5661,49 +4974,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>944</v>
+        <v>3164</v>
       </c>
       <c r="D17" s="7">
-        <v>904591</v>
+        <v>3259758</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>387</v>
+        <v>293</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>388</v>
+        <v>332</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>389</v>
+        <v>78</v>
       </c>
       <c r="H17" s="7">
-        <v>1452</v>
+        <v>5005</v>
       </c>
       <c r="I17" s="7">
-        <v>1075244</v>
+        <v>3448554</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>390</v>
+        <v>333</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>391</v>
+        <v>334</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>135</v>
+        <v>335</v>
       </c>
       <c r="M17" s="7">
-        <v>2396</v>
+        <v>8169</v>
       </c>
       <c r="N17" s="7">
-        <v>1979835</v>
+        <v>6708312</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>392</v>
+        <v>336</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>393</v>
+        <v>337</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>394</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5712,10 +5025,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3376</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3459817</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5727,10 +5040,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1562</v>
+        <v>5364</v>
       </c>
       <c r="I18" s="7">
-        <v>1150432</v>
+        <v>3662157</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5742,10 +5055,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2568</v>
+        <v>8740</v>
       </c>
       <c r="N18" s="7">
-        <v>2115835</v>
+        <v>7121974</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5758,171 +5071,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>212</v>
-      </c>
-      <c r="D19" s="7">
-        <v>204962</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="H19" s="7">
-        <v>359</v>
-      </c>
-      <c r="I19" s="7">
-        <v>232277</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="M19" s="7">
-        <v>571</v>
-      </c>
-      <c r="N19" s="7">
-        <v>437239</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3164</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3180266</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="H20" s="7">
-        <v>5005</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3575695</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="M20" s="7">
-        <v>8169</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6755961</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3376</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5364</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3807972</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8740</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7193200</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
